--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -130,12 +130,12 @@
     <t>well</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
@@ -145,13 +145,13 @@
     <t>hope</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>update</t>
   </si>
   <si>
     <t>hand</t>
@@ -1582,25 +1582,25 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6866952789699571</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L25">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1608,25 +1608,25 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6764705882352942</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N26">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1712,13 +1712,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5896656534954408</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L30">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>0.95</v>
@@ -1730,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>135</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1738,25 +1738,25 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5882352941176471</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1764,13 +1764,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5757575757575758</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="10:17">
